--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H2">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06458395854155555</v>
+        <v>0.05434582076622223</v>
       </c>
       <c r="R2">
-        <v>0.5812556268739999</v>
+        <v>0.4891123868960001</v>
       </c>
       <c r="S2">
-        <v>0.008372709449768317</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="T2">
-        <v>0.008372709449768317</v>
+        <v>0.151580065893459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.88947133333333</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H3">
-        <v>98.668414</v>
+        <v>133.641392</v>
       </c>
       <c r="I3">
-        <v>0.1342547118204999</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J3">
-        <v>0.1342547118204999</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.9710068253311112</v>
+        <v>0.0874757155857778</v>
       </c>
       <c r="R3">
-        <v>8.739061427980001</v>
+        <v>0.787281440272</v>
       </c>
       <c r="S3">
-        <v>0.1258820023707316</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="T3">
-        <v>0.1258820023707316</v>
+        <v>0.243985177620336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.54713066666667</v>
+        <v>54.059897</v>
       </c>
       <c r="H4">
-        <v>133.641392</v>
+        <v>162.179691</v>
       </c>
       <c r="I4">
-        <v>0.1818412381722327</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J4">
-        <v>0.1818412381722327</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.08747571558577777</v>
+        <v>0.1061556177423333</v>
       </c>
       <c r="R4">
-        <v>0.7872814402719999</v>
+        <v>0.955400559681</v>
       </c>
       <c r="S4">
-        <v>0.01134041280605353</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="T4">
-        <v>0.01134041280605353</v>
+        <v>0.2960867147735651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.54713066666667</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H5">
-        <v>133.641392</v>
+        <v>34.241114</v>
       </c>
       <c r="I5">
-        <v>0.1818412381722327</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J5">
-        <v>0.1818412381722327</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.315179787715556</v>
+        <v>0.02241271139711112</v>
       </c>
       <c r="R5">
-        <v>11.83661808944</v>
+        <v>0.201714402574</v>
       </c>
       <c r="S5">
-        <v>0.1705008253661792</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="T5">
-        <v>0.1705008253661792</v>
+        <v>0.0625129995743248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.62095133333332</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H6">
-        <v>277.862854</v>
+        <v>134.654644</v>
       </c>
       <c r="I6">
-        <v>0.3780784131119371</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J6">
-        <v>0.3780784131119371</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.005891</v>
       </c>
       <c r="O6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1818766747682222</v>
+        <v>0.08813894531155557</v>
       </c>
       <c r="R6">
-        <v>1.636890072914</v>
+        <v>0.793250507804</v>
       </c>
       <c r="S6">
-        <v>0.02357861902417316</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="T6">
-        <v>0.02357861902417316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>92.62095133333332</v>
-      </c>
-      <c r="H7">
-        <v>277.862854</v>
-      </c>
-      <c r="I7">
-        <v>0.3780784131119371</v>
-      </c>
-      <c r="J7">
-        <v>0.3780784131119371</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>2.734479219864444</v>
-      </c>
-      <c r="R7">
-        <v>24.61031297878</v>
-      </c>
-      <c r="S7">
-        <v>0.3544997940877639</v>
-      </c>
-      <c r="T7">
-        <v>0.3544997940877639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>12.51702</v>
-      </c>
-      <c r="H8">
-        <v>37.55106</v>
-      </c>
-      <c r="I8">
-        <v>0.0510944337146668</v>
-      </c>
-      <c r="J8">
-        <v>0.0510944337146668</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.005891</v>
-      </c>
-      <c r="O8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q8">
-        <v>0.02457925494</v>
-      </c>
-      <c r="R8">
-        <v>0.22121329446</v>
-      </c>
-      <c r="S8">
-        <v>0.003186471760971217</v>
-      </c>
-      <c r="T8">
-        <v>0.003186471760971217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>12.51702</v>
-      </c>
-      <c r="H9">
-        <v>37.55106</v>
-      </c>
-      <c r="I9">
-        <v>0.0510944337146668</v>
-      </c>
-      <c r="J9">
-        <v>0.0510944337146668</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q9">
-        <v>0.3695441538000001</v>
-      </c>
-      <c r="R9">
-        <v>3.3258973842</v>
-      </c>
-      <c r="S9">
-        <v>0.04790796195369559</v>
-      </c>
-      <c r="T9">
-        <v>0.04790796195369559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>62.40357966666667</v>
-      </c>
-      <c r="H10">
-        <v>187.210739</v>
-      </c>
-      <c r="I10">
-        <v>0.2547312031806635</v>
-      </c>
-      <c r="J10">
-        <v>0.2547312031806635</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.005891</v>
-      </c>
-      <c r="O10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q10">
-        <v>0.1225398292721111</v>
-      </c>
-      <c r="R10">
-        <v>1.102858463449</v>
-      </c>
-      <c r="S10">
-        <v>0.01588614897086934</v>
-      </c>
-      <c r="T10">
-        <v>0.01588614897086934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>62.40357966666667</v>
-      </c>
-      <c r="H11">
-        <v>187.210739</v>
-      </c>
-      <c r="I11">
-        <v>0.2547312031806635</v>
-      </c>
-      <c r="J11">
-        <v>0.2547312031806635</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q11">
-        <v>1.842361683692222</v>
-      </c>
-      <c r="R11">
-        <v>16.58125515323</v>
-      </c>
-      <c r="S11">
-        <v>0.2388450542097942</v>
-      </c>
-      <c r="T11">
-        <v>0.2388450542097942</v>
+        <v>0.2458350421383153</v>
       </c>
     </row>
   </sheetData>
